--- a/Table/client/lua/exe/temp/S 神兽装备表.xlsx
+++ b/Table/client/lua/exe/temp/S 神兽装备表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SLRPGA\trunk\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\td1_2019_and_hg\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B67964C-77CB-42EE-A8A6-83045DD3D0B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,19 +17,27 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$67</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="132">
   <si>
     <t>装备ID</t>
   </si>
@@ -166,70 +173,46 @@
     <t>白色旁肢</t>
   </si>
   <si>
-    <t>蓝色旁肢</t>
-  </si>
-  <si>
     <t>紫色旁肢</t>
   </si>
   <si>
     <t>橙色旁肢</t>
   </si>
   <si>
-    <t>红色旁肢</t>
-  </si>
-  <si>
     <t>粉色旁肢</t>
   </si>
   <si>
     <t>白色元中</t>
   </si>
   <si>
-    <t>蓝色元中</t>
-  </si>
-  <si>
     <t>紫色元中</t>
   </si>
   <si>
     <t>橙色元中</t>
   </si>
   <si>
-    <t>红色元中</t>
-  </si>
-  <si>
     <t>粉色元中</t>
   </si>
   <si>
     <t>白色定垂</t>
   </si>
   <si>
-    <t>蓝色定垂</t>
-  </si>
-  <si>
     <t>紫色定垂</t>
   </si>
   <si>
     <t>橙色定垂</t>
   </si>
   <si>
-    <t>红色定垂</t>
-  </si>
-  <si>
     <t>粉色定垂</t>
   </si>
   <si>
     <t>白色偏足</t>
   </si>
   <si>
-    <t>蓝色偏足</t>
-  </si>
-  <si>
     <t>紫色偏足</t>
   </si>
   <si>
     <t>橙色偏足</t>
-  </si>
-  <si>
-    <t>红色偏足</t>
   </si>
   <si>
     <t>粉色偏足</t>
@@ -385,13 +368,171 @@
   <si>
     <t>经验道具</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色獸首</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍色獸首</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色獸首</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙色獸首</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅色獸首</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉色獸首</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍色旁肢</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅色旁肢</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍色元中</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅色元中</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍色定垂</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅色定垂</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍色偏足</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅色偏足</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 수급</t>
+  </si>
+  <si>
+    <t>희귀 수급</t>
+  </si>
+  <si>
+    <t>영웅 수급</t>
+  </si>
+  <si>
+    <t>전설 수급</t>
+  </si>
+  <si>
+    <t>신화 수급</t>
+  </si>
+  <si>
+    <t>초월 수급</t>
+  </si>
+  <si>
+    <t>일반 다리</t>
+  </si>
+  <si>
+    <t>희귀 다리</t>
+  </si>
+  <si>
+    <t>영웅 다리</t>
+  </si>
+  <si>
+    <t>전설 다리</t>
+  </si>
+  <si>
+    <t>신화 다리</t>
+  </si>
+  <si>
+    <t>초월 다리</t>
+  </si>
+  <si>
+    <t>일반 원중</t>
+  </si>
+  <si>
+    <t>희귀 원중</t>
+  </si>
+  <si>
+    <t>영웅 원중</t>
+  </si>
+  <si>
+    <t>전설 원중</t>
+  </si>
+  <si>
+    <t>신화 원중</t>
+  </si>
+  <si>
+    <t>초월 원중</t>
+  </si>
+  <si>
+    <t>일반 정수</t>
+  </si>
+  <si>
+    <t>희귀 정수</t>
+  </si>
+  <si>
+    <t>영웅 정수</t>
+  </si>
+  <si>
+    <t>전설 정수</t>
+  </si>
+  <si>
+    <t>신화 정수</t>
+  </si>
+  <si>
+    <t>초월 정수</t>
+  </si>
+  <si>
+    <t>일반 편족</t>
+  </si>
+  <si>
+    <t>희귀 편족</t>
+  </si>
+  <si>
+    <t>영웅 편족</t>
+  </si>
+  <si>
+    <t>전설 편족</t>
+  </si>
+  <si>
+    <t>신화 편족</t>
+  </si>
+  <si>
+    <t>초월 편족</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>오원진정</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,8 +575,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,6 +605,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -518,6 +672,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -792,810 +947,858 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9:T16"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="11" max="11" width="13" style="5" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="12.875" customWidth="1"/>
+    <col min="2" max="3" width="11" customWidth="1"/>
+    <col min="12" max="12" width="13" style="5" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>21010001</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="B2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>10</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>6000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>120</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
         <v>201</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="O2">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>21020001</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="B3" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>30</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>9000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>180</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
         <v>202</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="O3">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>21020101</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="B4" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>30</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>9000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>180</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
         <v>202</v>
       </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
       <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
         <v>302</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>382</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>21020201</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="B5" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
         <v>30</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>9000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>180</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>202</v>
       </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
       <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
         <v>302</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1147</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>21030001</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="B6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>60</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>15000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>300</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
         <v>203</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="O6">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>21030101</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="B7" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>60</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>15000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>300</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
         <v>203</v>
       </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
       <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
         <v>303</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>945</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>21030201</v>
       </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="B8" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
         <v>60</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>15000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>300</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
         <v>203</v>
       </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
       <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
         <v>303</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>2835</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>21040101</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+      <c r="B9" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
       </c>
       <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>4</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>100</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>21000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>420</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
         <v>204</v>
       </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
       <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
         <v>304</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>2227</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>21040201</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
+      <c r="B10" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
       </c>
       <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>4</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
       <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
         <v>100</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>21000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>420</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
         <v>204</v>
       </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
       <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
         <v>304</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>6682</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>21050101</v>
       </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="B11" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
       </c>
       <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>5</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>150</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>28000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>560</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
         <v>205</v>
       </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
       <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
         <v>305</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>4860</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>21050201</v>
       </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
+      <c r="B12" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>91</v>
       </c>
       <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>5</v>
       </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
       <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
         <v>150</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>28000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>560</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
         <v>205</v>
       </c>
-      <c r="M12">
-        <v>2</v>
-      </c>
       <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
         <v>305</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>14580</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>21050301</v>
       </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
+      <c r="B13" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
       </c>
       <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>5</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
       <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
         <v>150</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>28000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>560</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="M13">
-        <v>3</v>
+      <c r="L13">
+        <v>0</v>
       </c>
       <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
         <v>305</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>43740</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>21060301</v>
       </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
+      <c r="B14" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
       </c>
       <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>6</v>
       </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
       <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
         <v>210</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>35000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>700</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="M14">
-        <v>3</v>
+      <c r="L14">
+        <v>0</v>
       </c>
       <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
         <v>306</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>82012</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>22010001</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" t="s">
         <v>21</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>10</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>300</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
       <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>120</v>
       </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
       <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
         <v>201</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="O15">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="P15">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>22020001</v>
       </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
+      <c r="B16" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>30</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>450</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
       <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>180</v>
       </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
       <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
         <v>202</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="O16">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="P16">
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>22020101</v>
       </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
+      <c r="B17" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
         <v>30</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>450</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
       <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>180</v>
       </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
       <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
         <v>202</v>
       </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
       <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
         <v>302</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>382</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>22020201</v>
       </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
+      <c r="B18" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1604,2253 +1807,2400 @@
         <v>2</v>
       </c>
       <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
         <v>30</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>450</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
       <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>180</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
       <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
         <v>202</v>
       </c>
-      <c r="M18">
-        <v>2</v>
-      </c>
       <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
         <v>302</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>1147</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>22030001</v>
       </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
+      <c r="B19" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>60</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>750</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
       <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>300</v>
       </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
       <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
         <v>203</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="O19">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="P19">
         <v>315</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>22030101</v>
       </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
+      <c r="B20" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
         <v>60</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>750</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
       <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>300</v>
       </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
       <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
         <v>203</v>
       </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
       <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
         <v>303</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>945</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>22030201</v>
       </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
+      <c r="B21" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
         <v>60</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>750</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
       <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>300</v>
       </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
       <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
         <v>203</v>
       </c>
-      <c r="M21">
-        <v>2</v>
-      </c>
       <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21">
         <v>303</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>2835</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22040101</v>
       </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
+      <c r="B22" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
       </c>
       <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
         <v>4</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
       <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
         <v>100</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>1050</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
       <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>420</v>
       </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
       <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
         <v>204</v>
       </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
       <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
         <v>304</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>2227</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22040201</v>
       </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
+      <c r="B23" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
       </c>
       <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
         <v>4</v>
       </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
       <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
         <v>100</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
       <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>1050</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
       <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>420</v>
       </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
       <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
         <v>204</v>
       </c>
-      <c r="M23">
-        <v>2</v>
-      </c>
       <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23">
         <v>304</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>6682</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22050101</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
+      <c r="B24" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
       </c>
       <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
         <v>5</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
       <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
         <v>150</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
       <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>1400</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
       <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>560</v>
       </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
       <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
         <v>205</v>
       </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
       <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
         <v>305</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>4860</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22050201</v>
       </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
+      <c r="B25" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" t="s">
+        <v>94</v>
       </c>
       <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
         <v>5</v>
       </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
       <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
         <v>150</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
       <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>1400</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
       <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>560</v>
       </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
       <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
         <v>205</v>
       </c>
-      <c r="M25">
-        <v>2</v>
-      </c>
       <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25">
         <v>305</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>14580</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>22050301</v>
       </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
+      <c r="B26" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" t="s">
+        <v>94</v>
       </c>
       <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
         <v>5</v>
       </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
       <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
         <v>150</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>1400</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
       <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
         <v>560</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>3</v>
+      <c r="L26">
+        <v>0</v>
       </c>
       <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26">
         <v>305</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>43740</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>22060301</v>
       </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
+      <c r="B27" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
       </c>
       <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
         <v>6</v>
       </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
       <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
         <v>210</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>1750</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
       <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
         <v>700</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>3</v>
+      <c r="L27">
+        <v>0</v>
       </c>
       <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27">
         <v>306</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>82012</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>23010001</v>
       </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
+      <c r="B28" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <v>10</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>6000</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
       <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
         <v>120</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
       <c r="K28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
         <v>201</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="O28">
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="P28">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>23020001</v>
       </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
+      <c r="B29" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
         <v>30</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>9000</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
       <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
         <v>180</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
       <c r="K29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29">
         <v>202</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="O29">
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="P29">
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>23020101</v>
       </c>
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
+      <c r="B30" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
         <v>30</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>9000</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
       <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>180</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
       <c r="K30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
         <v>202</v>
       </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
       <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
         <v>302</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>382</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>23020201</v>
       </c>
-      <c r="B31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
+      <c r="B31" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
       <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
         <v>30</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>9000</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
       <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <v>180</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
       <c r="K31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
         <v>202</v>
       </c>
-      <c r="M31">
-        <v>2</v>
-      </c>
       <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31">
         <v>302</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>1147</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>23030001</v>
       </c>
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
+      <c r="B32" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>60</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>15000</v>
       </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
       <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <v>300</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
       <c r="K32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
         <v>203</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="O32">
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="P32">
         <v>315</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>23030101</v>
       </c>
-      <c r="B33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
+      <c r="B33" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
         <v>60</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>15000</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
       <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>300</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
       <c r="K33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
         <v>203</v>
       </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
       <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
         <v>303</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>945</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>23030201</v>
       </c>
-      <c r="B34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
+      <c r="B34" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
         <v>60</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>15000</v>
       </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
       <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
         <v>300</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
       <c r="K34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
         <v>203</v>
       </c>
-      <c r="M34">
-        <v>2</v>
-      </c>
       <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34">
         <v>303</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>2835</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>23040101</v>
       </c>
-      <c r="B35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
+      <c r="B35" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
       </c>
       <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
         <v>4</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
       <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
         <v>100</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>21000</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
       <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <v>420</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
       <c r="K35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
         <v>204</v>
       </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
       <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
         <v>304</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>2227</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>23040201</v>
       </c>
-      <c r="B36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
+      <c r="B36" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
       </c>
       <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
         <v>4</v>
       </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
       <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
         <v>100</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>21000</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
       <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
         <v>420</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
       <c r="K36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
         <v>204</v>
       </c>
-      <c r="M36">
-        <v>2</v>
-      </c>
       <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36">
         <v>304</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>6682</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>23050101</v>
       </c>
-      <c r="B37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37">
-        <v>3</v>
+      <c r="B37" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" t="s">
+        <v>96</v>
       </c>
       <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
         <v>5</v>
       </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
       <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
         <v>150</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>28000</v>
       </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
       <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
         <v>560</v>
       </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
       <c r="K37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
         <v>205</v>
       </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
       <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
         <v>305</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>4860</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>23050201</v>
       </c>
-      <c r="B38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
+      <c r="B38" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" t="s">
+        <v>96</v>
       </c>
       <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
         <v>5</v>
       </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
       <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
         <v>150</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>28000</v>
       </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
       <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
         <v>560</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
         <v>205</v>
       </c>
-      <c r="M38">
-        <v>2</v>
-      </c>
       <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38">
         <v>305</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>14580</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>23050301</v>
       </c>
-      <c r="B39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39">
-        <v>3</v>
+      <c r="B39" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" t="s">
+        <v>96</v>
       </c>
       <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
         <v>5</v>
       </c>
-      <c r="E39">
-        <v>3</v>
-      </c>
       <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
         <v>150</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>28000</v>
       </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
       <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
         <v>560</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
       <c r="K39">
         <v>0</v>
       </c>
-      <c r="M39">
-        <v>3</v>
+      <c r="L39">
+        <v>0</v>
       </c>
       <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39">
         <v>305</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>43740</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>23060301</v>
       </c>
-      <c r="B40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
+      <c r="B40" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
       </c>
       <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
         <v>6</v>
       </c>
-      <c r="E40">
-        <v>3</v>
-      </c>
       <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
         <v>210</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>35000</v>
       </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
       <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
         <v>700</v>
       </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
       <c r="K40">
         <v>0</v>
       </c>
-      <c r="M40">
-        <v>3</v>
+      <c r="L40">
+        <v>0</v>
       </c>
       <c r="N40">
+        <v>3</v>
+      </c>
+      <c r="O40">
         <v>306</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>82012</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>24010001</v>
       </c>
-      <c r="B41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41">
+      <c r="B41" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41">
         <v>4</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
         <v>10</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>6000</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
       <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
         <v>120</v>
       </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
       <c r="K41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="M41">
         <v>201</v>
       </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="O41">
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="P41">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>24020001</v>
       </c>
-      <c r="B42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42">
+      <c r="B42" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42">
         <v>4</v>
       </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
       <c r="E42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
         <v>30</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>9000</v>
       </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
       <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
         <v>180</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
       <c r="K42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L42">
+        <v>3</v>
+      </c>
+      <c r="M42">
         <v>202</v>
       </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="O42">
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="P42">
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>24020101</v>
       </c>
-      <c r="B43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43">
+      <c r="B43" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43">
         <v>4</v>
       </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
       <c r="E43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
         <v>30</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>9000</v>
       </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
       <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
         <v>180</v>
       </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
       <c r="K43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43">
         <v>202</v>
       </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
       <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
         <v>302</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>382</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>24020201</v>
       </c>
-      <c r="B44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44">
+      <c r="B44" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44">
         <v>4</v>
       </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
       <c r="E44">
         <v>2</v>
       </c>
       <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
         <v>30</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>9000</v>
       </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
       <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
         <v>180</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
       <c r="K44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
         <v>202</v>
       </c>
-      <c r="M44">
-        <v>2</v>
-      </c>
       <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44">
         <v>302</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>1147</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>24030001</v>
       </c>
-      <c r="B45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45">
+      <c r="B45" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45">
         <v>4</v>
       </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
       <c r="E45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
         <v>60</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>15000</v>
       </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
       <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
         <v>300</v>
       </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
       <c r="K45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L45">
+        <v>3</v>
+      </c>
+      <c r="M45">
         <v>203</v>
       </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="O45">
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="P45">
         <v>315</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>24030101</v>
       </c>
-      <c r="B46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46">
+      <c r="B46" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46">
         <v>4</v>
       </c>
-      <c r="D46">
-        <v>3</v>
-      </c>
       <c r="E46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
         <v>60</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>15000</v>
       </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
       <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
         <v>300</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
       <c r="K46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
         <v>203</v>
       </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
       <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
         <v>303</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>945</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>24030201</v>
       </c>
-      <c r="B47" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47">
+      <c r="B47" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47">
         <v>4</v>
       </c>
-      <c r="D47">
-        <v>3</v>
-      </c>
       <c r="E47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
         <v>60</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>15000</v>
       </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
       <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
         <v>300</v>
       </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
       <c r="K47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
         <v>203</v>
       </c>
-      <c r="M47">
-        <v>2</v>
-      </c>
       <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47">
         <v>303</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>2835</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>24040101</v>
       </c>
-      <c r="B48" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48">
-        <v>4</v>
+      <c r="B48" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" t="s">
+        <v>31</v>
       </c>
       <c r="D48">
         <v>4</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
         <v>100</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>21000</v>
       </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
       <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
         <v>420</v>
       </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
       <c r="K48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
         <v>204</v>
       </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
       <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
         <v>304</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>2227</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>24040201</v>
       </c>
-      <c r="B49" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49">
-        <v>4</v>
+      <c r="B49" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" t="s">
+        <v>31</v>
       </c>
       <c r="D49">
         <v>4</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
         <v>100</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>21000</v>
       </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
       <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
         <v>420</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
       <c r="K49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
         <v>204</v>
       </c>
-      <c r="M49">
-        <v>2</v>
-      </c>
       <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49">
         <v>304</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>6682</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>24050101</v>
       </c>
-      <c r="B50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C50">
+      <c r="B50" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50">
         <v>4</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>5</v>
       </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
       <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
         <v>150</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>28000</v>
       </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
       <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
         <v>560</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
       <c r="K50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
         <v>205</v>
       </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
       <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
         <v>305</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>4860</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>24050201</v>
       </c>
-      <c r="B51" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51">
+      <c r="B51" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51">
         <v>4</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>5</v>
       </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
       <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
         <v>150</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>28000</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
       <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
         <v>560</v>
       </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
       <c r="K51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
         <v>205</v>
       </c>
-      <c r="M51">
-        <v>2</v>
-      </c>
       <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51">
         <v>305</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>14580</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>24050301</v>
       </c>
-      <c r="B52" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52">
+      <c r="B52" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52">
         <v>4</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>5</v>
       </c>
-      <c r="E52">
-        <v>3</v>
-      </c>
       <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
         <v>150</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>28000</v>
       </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
       <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
         <v>560</v>
       </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
       <c r="K52">
         <v>0</v>
       </c>
-      <c r="M52">
-        <v>3</v>
+      <c r="L52">
+        <v>0</v>
       </c>
       <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52">
         <v>305</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>43740</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>24060301</v>
       </c>
-      <c r="B53" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53">
+      <c r="B53" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53">
         <v>4</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>6</v>
       </c>
-      <c r="E53">
-        <v>3</v>
-      </c>
       <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
         <v>210</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>35000</v>
       </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
       <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
         <v>700</v>
       </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
       <c r="K53">
         <v>0</v>
       </c>
-      <c r="M53">
-        <v>3</v>
+      <c r="L53">
+        <v>0</v>
       </c>
       <c r="N53">
+        <v>3</v>
+      </c>
+      <c r="O53">
         <v>306</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>82012</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>25010001</v>
       </c>
-      <c r="B54" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54">
+      <c r="B54" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54">
         <v>5</v>
       </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
         <v>10</v>
       </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
       <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
         <v>300</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
       <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
         <v>120</v>
       </c>
-      <c r="K54">
-        <v>3</v>
-      </c>
       <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54">
         <v>201</v>
       </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="O54">
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="P54">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>25020001</v>
       </c>
-      <c r="B55" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55">
+      <c r="B55" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55">
         <v>5</v>
       </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
       <c r="E55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
         <v>30</v>
       </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
       <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
         <v>450</v>
       </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
       <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
         <v>180</v>
       </c>
-      <c r="K55">
-        <v>3</v>
-      </c>
       <c r="L55">
+        <v>3</v>
+      </c>
+      <c r="M55">
         <v>202</v>
       </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="O55">
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="P55">
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>25020101</v>
       </c>
-      <c r="B56" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56">
+      <c r="B56" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56">
         <v>5</v>
       </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
       <c r="E56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
         <v>30</v>
       </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
       <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
         <v>450</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
       <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
         <v>180</v>
       </c>
-      <c r="K56">
-        <v>2</v>
-      </c>
       <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
         <v>202</v>
       </c>
-      <c r="M56">
-        <v>1</v>
-      </c>
       <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
         <v>302</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>382</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>25020201</v>
       </c>
-      <c r="B57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57">
+      <c r="B57" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57">
         <v>5</v>
       </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
       <c r="E57">
         <v>2</v>
       </c>
       <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
         <v>30</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
       <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
         <v>450</v>
       </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
       <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
         <v>180</v>
       </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
       <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
         <v>202</v>
       </c>
-      <c r="M57">
-        <v>2</v>
-      </c>
       <c r="N57">
+        <v>2</v>
+      </c>
+      <c r="O57">
         <v>302</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>1147</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>25030001</v>
       </c>
-      <c r="B58" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58">
+      <c r="B58" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58">
         <v>5</v>
       </c>
-      <c r="D58">
-        <v>3</v>
-      </c>
       <c r="E58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
         <v>60</v>
       </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
       <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
         <v>750</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
       <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
         <v>300</v>
       </c>
-      <c r="K58">
-        <v>3</v>
-      </c>
       <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
         <v>203</v>
       </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="O58">
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="P58">
         <v>315</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>25030101</v>
       </c>
-      <c r="B59" t="s">
-        <v>41</v>
-      </c>
-      <c r="C59">
+      <c r="B59" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59">
         <v>5</v>
       </c>
-      <c r="D59">
-        <v>3</v>
-      </c>
       <c r="E59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
         <v>60</v>
       </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
       <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
         <v>750</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
       <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
         <v>300</v>
       </c>
-      <c r="K59">
-        <v>2</v>
-      </c>
       <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
         <v>203</v>
       </c>
-      <c r="M59">
-        <v>1</v>
-      </c>
       <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
         <v>303</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>945</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>25030201</v>
       </c>
-      <c r="B60" t="s">
-        <v>41</v>
-      </c>
-      <c r="C60">
+      <c r="B60" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60">
         <v>5</v>
       </c>
-      <c r="D60">
-        <v>3</v>
-      </c>
       <c r="E60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
         <v>60</v>
       </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
       <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
         <v>750</v>
       </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
       <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
         <v>300</v>
       </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
       <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
         <v>203</v>
       </c>
-      <c r="M60">
-        <v>2</v>
-      </c>
       <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60">
         <v>303</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>2835</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>25040101</v>
       </c>
-      <c r="B61" t="s">
-        <v>42</v>
-      </c>
-      <c r="C61">
+      <c r="B61" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61">
         <v>5</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>4</v>
       </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
       <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
         <v>100</v>
       </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
       <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
         <v>1050</v>
       </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
       <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
         <v>420</v>
       </c>
-      <c r="K61">
-        <v>2</v>
-      </c>
       <c r="L61">
+        <v>2</v>
+      </c>
+      <c r="M61">
         <v>204</v>
       </c>
-      <c r="M61">
-        <v>1</v>
-      </c>
       <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
         <v>304</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>2227</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>25040201</v>
       </c>
-      <c r="B62" t="s">
-        <v>42</v>
-      </c>
-      <c r="C62">
+      <c r="B62" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62">
         <v>5</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>4</v>
       </c>
-      <c r="E62">
-        <v>2</v>
-      </c>
       <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
         <v>100</v>
       </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
       <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
         <v>1050</v>
       </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
       <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
         <v>420</v>
       </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
       <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
         <v>204</v>
       </c>
-      <c r="M62">
-        <v>2</v>
-      </c>
       <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62">
         <v>304</v>
       </c>
-      <c r="O62">
+      <c r="P62">
         <v>6682</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>25050101</v>
       </c>
-      <c r="B63" t="s">
-        <v>43</v>
-      </c>
-      <c r="C63">
-        <v>5</v>
+      <c r="B63" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" t="s">
+        <v>100</v>
       </c>
       <c r="D63">
         <v>5</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
         <v>150</v>
       </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
       <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
         <v>1400</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
       <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
         <v>560</v>
       </c>
-      <c r="K63">
-        <v>2</v>
-      </c>
       <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
         <v>205</v>
       </c>
-      <c r="M63">
-        <v>1</v>
-      </c>
       <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
         <v>305</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>4860</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>25050201</v>
       </c>
-      <c r="B64" t="s">
-        <v>43</v>
-      </c>
-      <c r="C64">
-        <v>5</v>
+      <c r="B64" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" t="s">
+        <v>100</v>
       </c>
       <c r="D64">
         <v>5</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
         <v>150</v>
       </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
       <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
         <v>1400</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
       <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
         <v>560</v>
       </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
       <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
         <v>205</v>
       </c>
-      <c r="M64">
-        <v>2</v>
-      </c>
       <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64">
         <v>305</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <v>14580</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>25050301</v>
       </c>
-      <c r="B65" t="s">
-        <v>43</v>
-      </c>
-      <c r="C65">
-        <v>5</v>
+      <c r="B65" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" t="s">
+        <v>100</v>
       </c>
       <c r="D65">
         <v>5</v>
       </c>
       <c r="E65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65">
         <v>150</v>
       </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
       <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
         <v>1400</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
       <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
         <v>560</v>
       </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>3</v>
+      <c r="L65">
+        <v>0</v>
       </c>
       <c r="N65">
+        <v>3</v>
+      </c>
+      <c r="O65">
         <v>305</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <v>43740</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>25060301</v>
       </c>
-      <c r="B66" t="s">
-        <v>44</v>
-      </c>
-      <c r="C66">
+      <c r="B66" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66">
         <v>5</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>6</v>
       </c>
-      <c r="E66">
-        <v>3</v>
-      </c>
       <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
         <v>210</v>
       </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
       <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
         <v>1750</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
       <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
         <v>700</v>
       </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>3</v>
+      <c r="L66">
+        <v>0</v>
       </c>
       <c r="N66">
+        <v>3</v>
+      </c>
+      <c r="O66">
         <v>306</v>
       </c>
-      <c r="O66">
+      <c r="P66">
         <v>82012</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>20000001</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
+        <v>131</v>
+      </c>
+      <c r="C67" t="s">
+        <v>37</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -3880,11 +4230,14 @@
         <v>0</v>
       </c>
       <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
         <v>450</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N67" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O67"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3893,7 +4246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3936,7 +4289,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="P1" t="s">
         <v>10</v>
@@ -3993,10 +4346,10 @@
         <v>4200</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="O2" t="str">
         <f t="shared" ref="O2:O41" si="0">M2&amp;N2</f>
@@ -4061,10 +4414,10 @@
         <v>6300</v>
       </c>
       <c r="M3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="N3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="O3" t="str">
         <f t="shared" si="0"/>
@@ -4129,10 +4482,10 @@
         <v>6300</v>
       </c>
       <c r="M4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" si="0"/>
@@ -4197,10 +4550,10 @@
         <v>6300</v>
       </c>
       <c r="M5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" si="0"/>
@@ -4265,10 +4618,10 @@
         <v>10500</v>
       </c>
       <c r="M6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="O6" t="str">
         <f t="shared" si="0"/>
@@ -4333,10 +4686,10 @@
         <v>10500</v>
       </c>
       <c r="M7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" si="0"/>
@@ -4401,10 +4754,10 @@
         <v>10500</v>
       </c>
       <c r="M8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="O8" t="str">
         <f t="shared" si="0"/>
@@ -4469,10 +4822,10 @@
         <v>14700</v>
       </c>
       <c r="M9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N9" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="O9" t="str">
         <f t="shared" si="0"/>
@@ -4537,10 +4890,10 @@
         <v>14700</v>
       </c>
       <c r="M10" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N10" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="O10" t="str">
         <f t="shared" si="0"/>
@@ -4605,10 +4958,10 @@
         <v>19600</v>
       </c>
       <c r="M11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="O11" t="str">
         <f t="shared" si="0"/>
@@ -4673,10 +5026,10 @@
         <v>19600</v>
       </c>
       <c r="M12" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="O12" t="str">
         <f t="shared" si="0"/>
@@ -4741,10 +5094,10 @@
         <v>19600</v>
       </c>
       <c r="M13" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N13" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="O13" t="str">
         <f t="shared" si="0"/>
@@ -4809,10 +5162,10 @@
         <v>24500</v>
       </c>
       <c r="M14" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="N14" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="O14" t="str">
         <f t="shared" si="0"/>
@@ -4877,10 +5230,10 @@
         <v>24500</v>
       </c>
       <c r="M15" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="N15" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="O15" t="str">
         <f t="shared" si="0"/>
@@ -4945,10 +5298,10 @@
         <v>4200</v>
       </c>
       <c r="M16" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N16" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="O16" t="str">
         <f t="shared" si="0"/>
@@ -5013,10 +5366,10 @@
         <v>6300</v>
       </c>
       <c r="M17" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="N17" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="O17" t="str">
         <f t="shared" si="0"/>
@@ -5081,10 +5434,10 @@
         <v>6300</v>
       </c>
       <c r="M18" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="N18" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="O18" t="str">
         <f t="shared" si="0"/>
@@ -5149,10 +5502,10 @@
         <v>6300</v>
       </c>
       <c r="M19" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="N19" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="O19" t="str">
         <f t="shared" si="0"/>
@@ -5217,10 +5570,10 @@
         <v>10500</v>
       </c>
       <c r="M20" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N20" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="O20" t="str">
         <f t="shared" si="0"/>
@@ -5285,10 +5638,10 @@
         <v>10500</v>
       </c>
       <c r="M21" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N21" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="O21" t="str">
         <f t="shared" si="0"/>
@@ -5353,10 +5706,10 @@
         <v>10500</v>
       </c>
       <c r="M22" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N22" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="O22" t="str">
         <f t="shared" si="0"/>
@@ -5421,10 +5774,10 @@
         <v>14700</v>
       </c>
       <c r="M23" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N23" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="O23" t="str">
         <f t="shared" si="0"/>
@@ -5489,10 +5842,10 @@
         <v>14700</v>
       </c>
       <c r="M24" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N24" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="O24" t="str">
         <f t="shared" si="0"/>
@@ -5557,10 +5910,10 @@
         <v>19600</v>
       </c>
       <c r="M25" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N25" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="O25" t="str">
         <f t="shared" si="0"/>
@@ -5625,10 +5978,10 @@
         <v>19600</v>
       </c>
       <c r="M26" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N26" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="O26" t="str">
         <f t="shared" si="0"/>
@@ -5693,10 +6046,10 @@
         <v>19600</v>
       </c>
       <c r="M27" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N27" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="O27" t="str">
         <f t="shared" si="0"/>
@@ -5761,10 +6114,10 @@
         <v>24500</v>
       </c>
       <c r="M28" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="N28" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="O28" t="str">
         <f t="shared" si="0"/>
@@ -5829,10 +6182,10 @@
         <v>24500</v>
       </c>
       <c r="M29" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="N29" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="O29" t="str">
         <f t="shared" si="0"/>
@@ -5897,10 +6250,10 @@
         <v>4200</v>
       </c>
       <c r="M30" t="s">
+        <v>39</v>
+      </c>
+      <c r="N30" t="s">
         <v>47</v>
-      </c>
-      <c r="N30" t="s">
-        <v>55</v>
       </c>
       <c r="O30" t="str">
         <f t="shared" si="0"/>
@@ -5965,10 +6318,10 @@
         <v>6300</v>
       </c>
       <c r="M31" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="N31" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="O31" t="str">
         <f t="shared" si="0"/>
@@ -6033,10 +6386,10 @@
         <v>6300</v>
       </c>
       <c r="M32" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="N32" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="O32" t="str">
         <f t="shared" si="0"/>
@@ -6101,10 +6454,10 @@
         <v>6300</v>
       </c>
       <c r="M33" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="N33" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="O33" t="str">
         <f t="shared" si="0"/>
@@ -6169,10 +6522,10 @@
         <v>10500</v>
       </c>
       <c r="M34" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N34" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="O34" t="str">
         <f t="shared" si="0"/>
@@ -6237,10 +6590,10 @@
         <v>10500</v>
       </c>
       <c r="M35" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N35" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="O35" t="str">
         <f t="shared" si="0"/>
@@ -6305,10 +6658,10 @@
         <v>10500</v>
       </c>
       <c r="M36" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N36" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="O36" t="str">
         <f t="shared" si="0"/>
@@ -6373,10 +6726,10 @@
         <v>14700</v>
       </c>
       <c r="M37" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N37" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="O37" t="str">
         <f t="shared" si="0"/>
@@ -6441,10 +6794,10 @@
         <v>14700</v>
       </c>
       <c r="M38" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N38" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="O38" t="str">
         <f t="shared" si="0"/>
@@ -6509,10 +6862,10 @@
         <v>19600</v>
       </c>
       <c r="M39" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N39" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="O39" t="str">
         <f t="shared" si="0"/>
@@ -6577,10 +6930,10 @@
         <v>19600</v>
       </c>
       <c r="M40" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N40" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="O40" t="str">
         <f t="shared" si="0"/>
@@ -6645,10 +6998,10 @@
         <v>19600</v>
       </c>
       <c r="M41" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N41" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="O41" t="str">
         <f t="shared" si="0"/>
@@ -6713,10 +7066,10 @@
         <v>24500</v>
       </c>
       <c r="M42" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="N42" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="O42" t="str">
         <f t="shared" ref="O42:O62" si="8">M42&amp;N42</f>
@@ -6781,10 +7134,10 @@
         <v>24500</v>
       </c>
       <c r="M43" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="N43" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="O43" t="str">
         <f t="shared" si="8"/>
@@ -6849,10 +7202,10 @@
         <v>4200</v>
       </c>
       <c r="M44" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N44" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="O44" t="str">
         <f t="shared" si="8"/>
@@ -6917,10 +7270,10 @@
         <v>6300</v>
       </c>
       <c r="M45" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="N45" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="O45" t="str">
         <f t="shared" si="8"/>
@@ -6985,10 +7338,10 @@
         <v>6300</v>
       </c>
       <c r="M46" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="N46" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="O46" t="str">
         <f t="shared" si="8"/>
@@ -7053,10 +7406,10 @@
         <v>6300</v>
       </c>
       <c r="M47" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="N47" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="O47" t="str">
         <f t="shared" si="8"/>
@@ -7121,10 +7474,10 @@
         <v>10500</v>
       </c>
       <c r="M48" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N48" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="O48" t="str">
         <f t="shared" si="8"/>
@@ -7189,10 +7542,10 @@
         <v>10500</v>
       </c>
       <c r="M49" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N49" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="O49" t="str">
         <f t="shared" si="8"/>
@@ -7257,10 +7610,10 @@
         <v>10500</v>
       </c>
       <c r="M50" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N50" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="O50" t="str">
         <f t="shared" si="8"/>
@@ -7325,10 +7678,10 @@
         <v>14700</v>
       </c>
       <c r="M51" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N51" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="O51" t="str">
         <f t="shared" si="8"/>
@@ -7393,10 +7746,10 @@
         <v>14700</v>
       </c>
       <c r="M52" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N52" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="O52" t="str">
         <f t="shared" si="8"/>
@@ -7461,10 +7814,10 @@
         <v>19600</v>
       </c>
       <c r="M53" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N53" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="O53" t="str">
         <f t="shared" si="8"/>
@@ -7529,10 +7882,10 @@
         <v>19600</v>
       </c>
       <c r="M54" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N54" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="O54" t="str">
         <f t="shared" si="8"/>
@@ -7597,10 +7950,10 @@
         <v>19600</v>
       </c>
       <c r="M55" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N55" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="O55" t="str">
         <f t="shared" si="8"/>
@@ -7665,10 +8018,10 @@
         <v>24500</v>
       </c>
       <c r="M56" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="N56" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="O56" t="str">
         <f t="shared" si="8"/>
@@ -7733,10 +8086,10 @@
         <v>24500</v>
       </c>
       <c r="M57" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="N57" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="O57" t="str">
         <f t="shared" si="8"/>
@@ -7801,10 +8154,10 @@
         <v>4200</v>
       </c>
       <c r="M58" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N58" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="O58" t="str">
         <f t="shared" si="8"/>
@@ -7869,10 +8222,10 @@
         <v>6300</v>
       </c>
       <c r="M59" t="s">
+        <v>41</v>
+      </c>
+      <c r="N59" t="s">
         <v>49</v>
-      </c>
-      <c r="N59" t="s">
-        <v>57</v>
       </c>
       <c r="O59" t="str">
         <f t="shared" si="8"/>
@@ -7937,10 +8290,10 @@
         <v>6300</v>
       </c>
       <c r="M60" t="s">
+        <v>41</v>
+      </c>
+      <c r="N60" t="s">
         <v>49</v>
-      </c>
-      <c r="N60" t="s">
-        <v>57</v>
       </c>
       <c r="O60" t="str">
         <f t="shared" si="8"/>
@@ -8005,10 +8358,10 @@
         <v>6300</v>
       </c>
       <c r="M61" t="s">
+        <v>41</v>
+      </c>
+      <c r="N61" t="s">
         <v>49</v>
-      </c>
-      <c r="N61" t="s">
-        <v>57</v>
       </c>
       <c r="O61" t="str">
         <f t="shared" si="8"/>
@@ -8073,10 +8426,10 @@
         <v>10500</v>
       </c>
       <c r="M62" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N62" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="O62" t="str">
         <f t="shared" si="8"/>
@@ -8141,10 +8494,10 @@
         <v>10500</v>
       </c>
       <c r="M63" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N63" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="O63" t="str">
         <f t="shared" ref="O63:O71" si="11">M63&amp;N63</f>
@@ -8209,10 +8562,10 @@
         <v>10500</v>
       </c>
       <c r="M64" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N64" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="O64" t="str">
         <f t="shared" si="11"/>
@@ -8277,10 +8630,10 @@
         <v>14700</v>
       </c>
       <c r="M65" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N65" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="O65" t="str">
         <f t="shared" si="11"/>
@@ -8345,10 +8698,10 @@
         <v>14700</v>
       </c>
       <c r="M66" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N66" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="O66" t="str">
         <f t="shared" si="11"/>
@@ -8413,10 +8766,10 @@
         <v>19600</v>
       </c>
       <c r="M67" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N67" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="O67" t="str">
         <f t="shared" si="11"/>
@@ -8481,10 +8834,10 @@
         <v>19600</v>
       </c>
       <c r="M68" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N68" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="O68" t="str">
         <f t="shared" si="11"/>
@@ -8549,10 +8902,10 @@
         <v>19600</v>
       </c>
       <c r="M69" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N69" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="O69" t="str">
         <f t="shared" si="11"/>
@@ -8617,10 +8970,10 @@
         <v>24500</v>
       </c>
       <c r="M70" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="N70" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="O70" t="str">
         <f t="shared" si="11"/>
@@ -8685,10 +9038,10 @@
         <v>24500</v>
       </c>
       <c r="M71" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="N71" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="O71" t="str">
         <f t="shared" si="11"/>
@@ -8745,7 +9098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y46"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -8768,10 +9121,10 @@
         <v>201</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F2">
         <v>45</v>
@@ -8785,10 +9138,10 @@
         <v>202</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F3">
         <v>90</v>
@@ -8802,10 +9155,10 @@
         <v>203</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F4">
         <v>180</v>
@@ -8819,10 +9172,10 @@
         <v>204</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F5">
         <v>400</v>
@@ -8836,10 +9189,10 @@
         <v>205</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F6">
         <v>900</v>
@@ -8853,10 +9206,10 @@
         <v>206</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F7">
         <v>2000</v>
@@ -8874,10 +9227,10 @@
         <v>301</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="V8">
         <v>472</v>
@@ -8891,10 +9244,10 @@
         <v>302</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="X9">
         <f>1689/480</f>
@@ -8909,10 +9262,10 @@
         <v>303</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
@@ -8923,10 +9276,10 @@
         <v>304</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="X11">
         <f>480*3.5</f>
@@ -8945,10 +9298,10 @@
         <v>305</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
@@ -8959,10 +9312,10 @@
         <v>306</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
@@ -8977,10 +9330,10 @@
         <v>6</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>9</v>
@@ -8989,7 +9342,7 @@
         <v>3</v>
       </c>
       <c r="L15" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="M15" t="s">
         <v>2</v>
@@ -9024,7 +9377,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="K16" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -9057,7 +9410,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -9098,7 +9451,7 @@
       </c>
       <c r="I18" s="3"/>
       <c r="K18" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="L18">
         <v>3</v>
@@ -9139,7 +9492,7 @@
       </c>
       <c r="I19" s="3"/>
       <c r="K19" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L19">
         <v>4</v>
@@ -9180,7 +9533,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L20">
         <v>5</v>
@@ -9214,7 +9567,7 @@
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.2">
       <c r="K21" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="L21">
         <v>6</v>
@@ -9269,13 +9622,13 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" ref="K23:K45" si="7">K17</f>
@@ -9304,7 +9657,7 @@
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -9345,7 +9698,7 @@
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -9387,7 +9740,7 @@
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -9430,7 +9783,7 @@
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -9467,12 +9820,12 @@
         <v>24500</v>
       </c>
       <c r="V27" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -9511,7 +9864,7 @@
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -9575,16 +9928,16 @@
         <v>3</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G31" s="3"/>
       <c r="I31" s="11"/>
@@ -10215,7 +10568,7 @@
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B46" s="10" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D46" s="6">
         <f t="shared" ref="D46" si="22">E46*F46*10</f>

--- a/Table/client/lua/exe/temp/S 神兽装备表.xlsx
+++ b/Table/client/lua/exe/temp/S 神兽装备表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\td1_2019_and_hg\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SLRPGA\trunk\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B67964C-77CB-42EE-A8A6-83045DD3D0B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,27 +18,19 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$67</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -105,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="95">
   <si>
     <t>装备ID</t>
   </si>
@@ -173,10 +166,16 @@
     <t>白色旁肢</t>
   </si>
   <si>
+    <t>蓝色旁肢</t>
+  </si>
+  <si>
     <t>紫色旁肢</t>
   </si>
   <si>
     <t>橙色旁肢</t>
+  </si>
+  <si>
+    <t>红色旁肢</t>
   </si>
   <si>
     <t>粉色旁肢</t>
@@ -185,10 +184,16 @@
     <t>白色元中</t>
   </si>
   <si>
+    <t>蓝色元中</t>
+  </si>
+  <si>
     <t>紫色元中</t>
   </si>
   <si>
     <t>橙色元中</t>
+  </si>
+  <si>
+    <t>红色元中</t>
   </si>
   <si>
     <t>粉色元中</t>
@@ -197,10 +202,16 @@
     <t>白色定垂</t>
   </si>
   <si>
+    <t>蓝色定垂</t>
+  </si>
+  <si>
     <t>紫色定垂</t>
   </si>
   <si>
     <t>橙色定垂</t>
+  </si>
+  <si>
+    <t>红色定垂</t>
   </si>
   <si>
     <t>粉色定垂</t>
@@ -209,10 +220,16 @@
     <t>白色偏足</t>
   </si>
   <si>
+    <t>蓝色偏足</t>
+  </si>
+  <si>
     <t>紫色偏足</t>
   </si>
   <si>
     <t>橙色偏足</t>
+  </si>
+  <si>
+    <t>红色偏足</t>
   </si>
   <si>
     <t>粉色偏足</t>
@@ -369,170 +386,12 @@
     <t>经验道具</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
-  <si>
-    <t>白色獸首</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>藍色獸首</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫色獸首</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>橙色獸首</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>紅色獸首</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉色獸首</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>藍色旁肢</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>紅色旁肢</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>藍色元中</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>紅色元中</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>藍色定垂</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>紅色定垂</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>藍色偏足</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>紅色偏足</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 수급</t>
-  </si>
-  <si>
-    <t>희귀 수급</t>
-  </si>
-  <si>
-    <t>영웅 수급</t>
-  </si>
-  <si>
-    <t>전설 수급</t>
-  </si>
-  <si>
-    <t>신화 수급</t>
-  </si>
-  <si>
-    <t>초월 수급</t>
-  </si>
-  <si>
-    <t>일반 다리</t>
-  </si>
-  <si>
-    <t>희귀 다리</t>
-  </si>
-  <si>
-    <t>영웅 다리</t>
-  </si>
-  <si>
-    <t>전설 다리</t>
-  </si>
-  <si>
-    <t>신화 다리</t>
-  </si>
-  <si>
-    <t>초월 다리</t>
-  </si>
-  <si>
-    <t>일반 원중</t>
-  </si>
-  <si>
-    <t>희귀 원중</t>
-  </si>
-  <si>
-    <t>영웅 원중</t>
-  </si>
-  <si>
-    <t>전설 원중</t>
-  </si>
-  <si>
-    <t>신화 원중</t>
-  </si>
-  <si>
-    <t>초월 원중</t>
-  </si>
-  <si>
-    <t>일반 정수</t>
-  </si>
-  <si>
-    <t>희귀 정수</t>
-  </si>
-  <si>
-    <t>영웅 정수</t>
-  </si>
-  <si>
-    <t>전설 정수</t>
-  </si>
-  <si>
-    <t>신화 정수</t>
-  </si>
-  <si>
-    <t>초월 정수</t>
-  </si>
-  <si>
-    <t>일반 편족</t>
-  </si>
-  <si>
-    <t>희귀 편족</t>
-  </si>
-  <si>
-    <t>영웅 편족</t>
-  </si>
-  <si>
-    <t>전설 편족</t>
-  </si>
-  <si>
-    <t>신화 편족</t>
-  </si>
-  <si>
-    <t>초월 편족</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>오원진정</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,15 +434,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -605,12 +457,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -672,7 +518,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -947,638 +792,605 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="R9" sqref="R9:T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="3" width="11" customWidth="1"/>
-    <col min="12" max="12" width="13" style="5" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="11" max="11" width="13" style="5" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>21010001</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" t="s">
-        <v>87</v>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>6000</v>
       </c>
       <c r="H2">
-        <v>6000</v>
+        <v>120</v>
       </c>
       <c r="I2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>201</v>
       </c>
       <c r="M2">
-        <v>201</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>21020001</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" t="s">
-        <v>88</v>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>9000</v>
       </c>
       <c r="H3">
-        <v>9000</v>
+        <v>180</v>
       </c>
       <c r="I3">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>202</v>
       </c>
       <c r="M3">
-        <v>202</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>21020101</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" t="s">
-        <v>88</v>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>9000</v>
       </c>
       <c r="H4">
-        <v>9000</v>
+        <v>180</v>
       </c>
       <c r="I4">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>202</v>
       </c>
       <c r="M4">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>302</v>
       </c>
       <c r="O4">
-        <v>302</v>
-      </c>
-      <c r="P4">
         <v>382</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>21020201</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" t="s">
-        <v>88</v>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>9000</v>
       </c>
       <c r="H5">
-        <v>9000</v>
+        <v>180</v>
       </c>
       <c r="I5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="M5">
-        <v>202</v>
+        <v>2</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>302</v>
       </c>
       <c r="O5">
-        <v>302</v>
-      </c>
-      <c r="P5">
         <v>1147</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>21030001</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G6">
-        <v>60</v>
+        <v>15000</v>
       </c>
       <c r="H6">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="I6">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>203</v>
       </c>
       <c r="M6">
-        <v>203</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>21030101</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G7">
-        <v>60</v>
+        <v>15000</v>
       </c>
       <c r="H7">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="I7">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>203</v>
       </c>
       <c r="M7">
-        <v>203</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>303</v>
       </c>
       <c r="O7">
-        <v>303</v>
-      </c>
-      <c r="P7">
         <v>945</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>21030201</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="G8">
-        <v>60</v>
+        <v>15000</v>
       </c>
       <c r="H8">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="I8">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="M8">
-        <v>203</v>
+        <v>2</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>303</v>
       </c>
       <c r="O8">
-        <v>303</v>
-      </c>
-      <c r="P8">
         <v>2835</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>21040101</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" t="s">
-        <v>90</v>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G9">
-        <v>100</v>
+        <v>21000</v>
       </c>
       <c r="H9">
-        <v>21000</v>
+        <v>420</v>
       </c>
       <c r="I9">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>204</v>
       </c>
       <c r="M9">
-        <v>204</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>304</v>
       </c>
       <c r="O9">
-        <v>304</v>
-      </c>
-      <c r="P9">
         <v>2227</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>21040201</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" t="s">
-        <v>90</v>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>21000</v>
       </c>
       <c r="H10">
-        <v>21000</v>
+        <v>420</v>
       </c>
       <c r="I10">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="M10">
-        <v>204</v>
+        <v>2</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>304</v>
       </c>
       <c r="O10">
-        <v>304</v>
-      </c>
-      <c r="P10">
         <v>6682</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>21050101</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" t="s">
-        <v>91</v>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="G11">
-        <v>150</v>
+        <v>28000</v>
       </c>
       <c r="H11">
-        <v>28000</v>
+        <v>560</v>
       </c>
       <c r="I11">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>205</v>
       </c>
       <c r="M11">
-        <v>205</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>305</v>
       </c>
       <c r="O11">
-        <v>305</v>
-      </c>
-      <c r="P11">
         <v>4860</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>21050201</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" t="s">
-        <v>91</v>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="G12">
-        <v>150</v>
+        <v>28000</v>
       </c>
       <c r="H12">
-        <v>28000</v>
+        <v>560</v>
       </c>
       <c r="I12">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="M12">
-        <v>205</v>
+        <v>2</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>305</v>
       </c>
       <c r="O12">
-        <v>305</v>
-      </c>
-      <c r="P12">
         <v>14580</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>21050301</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" t="s">
-        <v>91</v>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="G13">
-        <v>150</v>
+        <v>28000</v>
       </c>
       <c r="H13">
-        <v>28000</v>
+        <v>560</v>
       </c>
       <c r="I13">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1586,46 +1398,43 @@
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13">
-        <v>0</v>
+      <c r="M13">
+        <v>3</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>305</v>
       </c>
       <c r="O13">
-        <v>305</v>
-      </c>
-      <c r="P13">
         <v>43740</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>21060301</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" t="s">
-        <v>92</v>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>210</v>
       </c>
       <c r="G14">
-        <v>210</v>
+        <v>35000</v>
       </c>
       <c r="H14">
-        <v>35000</v>
+        <v>700</v>
       </c>
       <c r="I14">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1633,172 +1442,160 @@
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="L14">
-        <v>0</v>
+      <c r="M14">
+        <v>3</v>
       </c>
       <c r="N14">
-        <v>3</v>
+        <v>306</v>
       </c>
       <c r="O14">
-        <v>306</v>
-      </c>
-      <c r="P14">
         <v>82012</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>22010001</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s">
         <v>21</v>
       </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I15">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K15">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>201</v>
       </c>
       <c r="M15">
-        <v>201</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>22020001</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" t="s">
-        <v>93</v>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G16">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="I16">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="K16">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>202</v>
       </c>
       <c r="M16">
-        <v>202</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>22020101</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" t="s">
-        <v>93</v>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G17">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="I17">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="K17">
-        <v>180</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>202</v>
       </c>
       <c r="M17">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>302</v>
       </c>
       <c r="O17">
-        <v>302</v>
-      </c>
-      <c r="P17">
         <v>382</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>22020201</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" t="s">
-        <v>93</v>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1807,2400 +1604,2253 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G18">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="I18">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="K18">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="M18">
-        <v>202</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>2</v>
+        <v>302</v>
       </c>
       <c r="O18">
-        <v>302</v>
-      </c>
-      <c r="P18">
         <v>1147</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>22030001</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G19">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="I19">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K19">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>203</v>
       </c>
       <c r="M19">
-        <v>203</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="O19">
         <v>315</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>22030101</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G20">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="I20">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K20">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>203</v>
       </c>
       <c r="M20">
-        <v>203</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>303</v>
       </c>
       <c r="O20">
-        <v>303</v>
-      </c>
-      <c r="P20">
         <v>945</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>22030201</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" t="s">
-        <v>22</v>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="G21">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="I21">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K21">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="M21">
-        <v>203</v>
+        <v>2</v>
       </c>
       <c r="N21">
-        <v>2</v>
+        <v>303</v>
       </c>
       <c r="O21">
-        <v>303</v>
-      </c>
-      <c r="P21">
         <v>2835</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22040101</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C22" t="s">
-        <v>23</v>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G22">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="I22">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="K22">
-        <v>420</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>204</v>
       </c>
       <c r="M22">
-        <v>204</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>304</v>
       </c>
       <c r="O22">
-        <v>304</v>
-      </c>
-      <c r="P22">
         <v>2227</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22040201</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="I23">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="K23">
-        <v>420</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="M23">
-        <v>204</v>
+        <v>2</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>304</v>
       </c>
       <c r="O23">
-        <v>304</v>
-      </c>
-      <c r="P23">
         <v>6682</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22050101</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" t="s">
-        <v>94</v>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="G24">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="I24">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="K24">
-        <v>560</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>205</v>
       </c>
       <c r="M24">
-        <v>205</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>305</v>
       </c>
       <c r="O24">
-        <v>305</v>
-      </c>
-      <c r="P24">
         <v>4860</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22050201</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" t="s">
-        <v>94</v>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="G25">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="I25">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="K25">
-        <v>560</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="M25">
-        <v>205</v>
+        <v>2</v>
       </c>
       <c r="N25">
-        <v>2</v>
+        <v>305</v>
       </c>
       <c r="O25">
-        <v>305</v>
-      </c>
-      <c r="P25">
         <v>14580</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>22050301</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" t="s">
-        <v>94</v>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="G26">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="I26">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="K26">
-        <v>560</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
       </c>
       <c r="N26">
-        <v>3</v>
+        <v>305</v>
       </c>
       <c r="O26">
-        <v>305</v>
-      </c>
-      <c r="P26">
         <v>43740</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>22060301</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>210</v>
       </c>
       <c r="G27">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="I27">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="K27">
-        <v>700</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
       </c>
       <c r="N27">
-        <v>3</v>
+        <v>306</v>
       </c>
       <c r="O27">
-        <v>306</v>
-      </c>
-      <c r="P27">
         <v>82012</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>23010001</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" t="s">
-        <v>25</v>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G28">
-        <v>10</v>
+        <v>6000</v>
       </c>
       <c r="H28">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J28">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>201</v>
       </c>
       <c r="M28">
-        <v>201</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="O28">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>23020001</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" t="s">
-        <v>95</v>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G29">
-        <v>30</v>
+        <v>9000</v>
       </c>
       <c r="H29">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="J29">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>202</v>
       </c>
       <c r="M29">
-        <v>202</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="O29">
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>23020101</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" t="s">
-        <v>95</v>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G30">
-        <v>30</v>
+        <v>9000</v>
       </c>
       <c r="H30">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="J30">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>202</v>
       </c>
       <c r="M30">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>302</v>
       </c>
       <c r="O30">
-        <v>302</v>
-      </c>
-      <c r="P30">
         <v>382</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>23020201</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" t="s">
-        <v>95</v>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G31">
-        <v>30</v>
+        <v>9000</v>
       </c>
       <c r="H31">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="J31">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="M31">
-        <v>202</v>
+        <v>2</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>302</v>
       </c>
       <c r="O31">
-        <v>302</v>
-      </c>
-      <c r="P31">
         <v>1147</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>23030001</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" t="s">
-        <v>26</v>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G32">
-        <v>60</v>
+        <v>15000</v>
       </c>
       <c r="H32">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J32">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>203</v>
       </c>
       <c r="M32">
-        <v>203</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="O32">
         <v>315</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>23030101</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" t="s">
-        <v>26</v>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G33">
-        <v>60</v>
+        <v>15000</v>
       </c>
       <c r="H33">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J33">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L33">
-        <v>2</v>
+        <v>203</v>
       </c>
       <c r="M33">
-        <v>203</v>
+        <v>1</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>303</v>
       </c>
       <c r="O33">
-        <v>303</v>
-      </c>
-      <c r="P33">
         <v>945</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>23030201</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" t="s">
-        <v>26</v>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="G34">
-        <v>60</v>
+        <v>15000</v>
       </c>
       <c r="H34">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J34">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="M34">
-        <v>203</v>
+        <v>2</v>
       </c>
       <c r="N34">
-        <v>2</v>
+        <v>303</v>
       </c>
       <c r="O34">
-        <v>303</v>
-      </c>
-      <c r="P34">
         <v>2835</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>23040101</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G35">
-        <v>100</v>
+        <v>21000</v>
       </c>
       <c r="H35">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="J35">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>204</v>
       </c>
       <c r="M35">
-        <v>204</v>
+        <v>1</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>304</v>
       </c>
       <c r="O35">
-        <v>304</v>
-      </c>
-      <c r="P35">
         <v>2227</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>23040201</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G36">
-        <v>100</v>
+        <v>21000</v>
       </c>
       <c r="H36">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="J36">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="M36">
-        <v>204</v>
+        <v>2</v>
       </c>
       <c r="N36">
-        <v>2</v>
+        <v>304</v>
       </c>
       <c r="O36">
-        <v>304</v>
-      </c>
-      <c r="P36">
         <v>6682</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>23050101</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" t="s">
-        <v>96</v>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="G37">
-        <v>150</v>
+        <v>28000</v>
       </c>
       <c r="H37">
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="J37">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>2</v>
+        <v>205</v>
       </c>
       <c r="M37">
-        <v>205</v>
+        <v>1</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>305</v>
       </c>
       <c r="O37">
-        <v>305</v>
-      </c>
-      <c r="P37">
         <v>4860</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>23050201</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" t="s">
-        <v>96</v>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="G38">
-        <v>150</v>
+        <v>28000</v>
       </c>
       <c r="H38">
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="J38">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="M38">
-        <v>205</v>
+        <v>2</v>
       </c>
       <c r="N38">
-        <v>2</v>
+        <v>305</v>
       </c>
       <c r="O38">
-        <v>305</v>
-      </c>
-      <c r="P38">
         <v>14580</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>23050301</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" t="s">
-        <v>96</v>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="G39">
-        <v>150</v>
+        <v>28000</v>
       </c>
       <c r="H39">
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="J39">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
-      <c r="L39">
-        <v>0</v>
+      <c r="M39">
+        <v>3</v>
       </c>
       <c r="N39">
-        <v>3</v>
+        <v>305</v>
       </c>
       <c r="O39">
-        <v>305</v>
-      </c>
-      <c r="P39">
         <v>43740</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>23060301</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" t="s">
-        <v>28</v>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E40">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>210</v>
       </c>
       <c r="G40">
-        <v>210</v>
+        <v>35000</v>
       </c>
       <c r="H40">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J40">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
-      <c r="L40">
-        <v>0</v>
+      <c r="M40">
+        <v>3</v>
       </c>
       <c r="N40">
-        <v>3</v>
+        <v>306</v>
       </c>
       <c r="O40">
-        <v>306</v>
-      </c>
-      <c r="P40">
         <v>82012</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>24010001</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41" t="s">
-        <v>29</v>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G41">
-        <v>10</v>
+        <v>6000</v>
       </c>
       <c r="H41">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J41">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>201</v>
       </c>
       <c r="M41">
-        <v>201</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="O41">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>24020001</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C42" t="s">
-        <v>97</v>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G42">
-        <v>30</v>
+        <v>9000</v>
       </c>
       <c r="H42">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="J42">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L42">
-        <v>3</v>
+        <v>202</v>
       </c>
       <c r="M42">
-        <v>202</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="O42">
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>24020101</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C43" t="s">
-        <v>97</v>
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G43">
-        <v>30</v>
+        <v>9000</v>
       </c>
       <c r="H43">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="J43">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L43">
-        <v>2</v>
+        <v>202</v>
       </c>
       <c r="M43">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>302</v>
       </c>
       <c r="O43">
-        <v>302</v>
-      </c>
-      <c r="P43">
         <v>382</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>24020201</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C44" t="s">
-        <v>97</v>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>2</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G44">
-        <v>30</v>
+        <v>9000</v>
       </c>
       <c r="H44">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="J44">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="M44">
-        <v>202</v>
+        <v>2</v>
       </c>
       <c r="N44">
-        <v>2</v>
+        <v>302</v>
       </c>
       <c r="O44">
-        <v>302</v>
-      </c>
-      <c r="P44">
         <v>1147</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>24030001</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" t="s">
-        <v>30</v>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G45">
-        <v>60</v>
+        <v>15000</v>
       </c>
       <c r="H45">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J45">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L45">
-        <v>3</v>
+        <v>203</v>
       </c>
       <c r="M45">
-        <v>203</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="O45">
         <v>315</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>24030101</v>
       </c>
-      <c r="B46" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C46" t="s">
-        <v>30</v>
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G46">
-        <v>60</v>
+        <v>15000</v>
       </c>
       <c r="H46">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J46">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L46">
-        <v>2</v>
+        <v>203</v>
       </c>
       <c r="M46">
-        <v>203</v>
+        <v>1</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>303</v>
       </c>
       <c r="O46">
-        <v>303</v>
-      </c>
-      <c r="P46">
         <v>945</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>24030201</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" t="s">
-        <v>30</v>
+      <c r="B47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="G47">
-        <v>60</v>
+        <v>15000</v>
       </c>
       <c r="H47">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J47">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="M47">
-        <v>203</v>
+        <v>2</v>
       </c>
       <c r="N47">
-        <v>2</v>
+        <v>303</v>
       </c>
       <c r="O47">
-        <v>303</v>
-      </c>
-      <c r="P47">
         <v>2835</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>24040101</v>
       </c>
-      <c r="B48" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" t="s">
-        <v>31</v>
+      <c r="B48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
       </c>
       <c r="D48">
         <v>4</v>
       </c>
       <c r="E48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G48">
-        <v>100</v>
+        <v>21000</v>
       </c>
       <c r="H48">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="J48">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L48">
-        <v>2</v>
+        <v>204</v>
       </c>
       <c r="M48">
-        <v>204</v>
+        <v>1</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>304</v>
       </c>
       <c r="O48">
-        <v>304</v>
-      </c>
-      <c r="P48">
         <v>2227</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>24040201</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C49" t="s">
-        <v>31</v>
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
       </c>
       <c r="D49">
         <v>4</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G49">
-        <v>100</v>
+        <v>21000</v>
       </c>
       <c r="H49">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="J49">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="M49">
-        <v>204</v>
+        <v>2</v>
       </c>
       <c r="N49">
-        <v>2</v>
+        <v>304</v>
       </c>
       <c r="O49">
-        <v>304</v>
-      </c>
-      <c r="P49">
         <v>6682</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>24050101</v>
       </c>
-      <c r="B50" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" t="s">
-        <v>98</v>
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="G50">
-        <v>150</v>
+        <v>28000</v>
       </c>
       <c r="H50">
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="J50">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L50">
-        <v>2</v>
+        <v>205</v>
       </c>
       <c r="M50">
-        <v>205</v>
+        <v>1</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>305</v>
       </c>
       <c r="O50">
-        <v>305</v>
-      </c>
-      <c r="P50">
         <v>4860</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>24050201</v>
       </c>
-      <c r="B51" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C51" t="s">
-        <v>98</v>
+      <c r="B51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="G51">
-        <v>150</v>
+        <v>28000</v>
       </c>
       <c r="H51">
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="J51">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="M51">
-        <v>205</v>
+        <v>2</v>
       </c>
       <c r="N51">
-        <v>2</v>
+        <v>305</v>
       </c>
       <c r="O51">
-        <v>305</v>
-      </c>
-      <c r="P51">
         <v>14580</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>24050301</v>
       </c>
-      <c r="B52" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C52" t="s">
-        <v>98</v>
+      <c r="B52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="G52">
-        <v>150</v>
+        <v>28000</v>
       </c>
       <c r="H52">
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="J52">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
-      <c r="L52">
-        <v>0</v>
+      <c r="M52">
+        <v>3</v>
       </c>
       <c r="N52">
-        <v>3</v>
+        <v>305</v>
       </c>
       <c r="O52">
-        <v>305</v>
-      </c>
-      <c r="P52">
         <v>43740</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>24060301</v>
       </c>
-      <c r="B53" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" t="s">
-        <v>32</v>
+      <c r="B53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E53">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>210</v>
       </c>
       <c r="G53">
-        <v>210</v>
+        <v>35000</v>
       </c>
       <c r="H53">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J53">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
-      <c r="L53">
-        <v>0</v>
+      <c r="M53">
+        <v>3</v>
       </c>
       <c r="N53">
-        <v>3</v>
+        <v>306</v>
       </c>
       <c r="O53">
-        <v>306</v>
-      </c>
-      <c r="P53">
         <v>82012</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>25010001</v>
       </c>
-      <c r="B54" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C54" t="s">
-        <v>33</v>
+      <c r="B54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G54">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I54">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K54">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>201</v>
       </c>
       <c r="M54">
-        <v>201</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="O54">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>25020001</v>
       </c>
-      <c r="B55" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C55" t="s">
-        <v>99</v>
+      <c r="B55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G55">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="I55">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="K55">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="L55">
-        <v>3</v>
+        <v>202</v>
       </c>
       <c r="M55">
-        <v>202</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="O55">
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>25020101</v>
       </c>
-      <c r="B56" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C56" t="s">
-        <v>99</v>
+      <c r="B56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G56">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="I56">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="K56">
-        <v>180</v>
+        <v>2</v>
       </c>
       <c r="L56">
-        <v>2</v>
+        <v>202</v>
       </c>
       <c r="M56">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>302</v>
       </c>
       <c r="O56">
-        <v>302</v>
-      </c>
-      <c r="P56">
         <v>382</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>25020201</v>
       </c>
-      <c r="B57" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C57" t="s">
-        <v>99</v>
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
       </c>
       <c r="D57">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E57">
         <v>2</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G57">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="I57">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="K57">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="M57">
-        <v>202</v>
+        <v>2</v>
       </c>
       <c r="N57">
-        <v>2</v>
+        <v>302</v>
       </c>
       <c r="O57">
-        <v>302</v>
-      </c>
-      <c r="P57">
         <v>1147</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>25030001</v>
       </c>
-      <c r="B58" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C58" t="s">
-        <v>34</v>
+      <c r="B58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
       </c>
       <c r="D58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G58">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="I58">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K58">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>203</v>
       </c>
       <c r="M58">
-        <v>203</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="O58">
         <v>315</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>25030101</v>
       </c>
-      <c r="B59" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" t="s">
-        <v>34</v>
+      <c r="B59" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G59">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="I59">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K59">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="L59">
-        <v>2</v>
+        <v>203</v>
       </c>
       <c r="M59">
-        <v>203</v>
+        <v>1</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>303</v>
       </c>
       <c r="O59">
-        <v>303</v>
-      </c>
-      <c r="P59">
         <v>945</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>25030201</v>
       </c>
-      <c r="B60" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C60" t="s">
-        <v>34</v>
+      <c r="B60" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="G60">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="I60">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K60">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="M60">
-        <v>203</v>
+        <v>2</v>
       </c>
       <c r="N60">
-        <v>2</v>
+        <v>303</v>
       </c>
       <c r="O60">
-        <v>303</v>
-      </c>
-      <c r="P60">
         <v>2835</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>25040101</v>
       </c>
-      <c r="B61" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C61" t="s">
-        <v>35</v>
+      <c r="B61" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G61">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="I61">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="K61">
-        <v>420</v>
+        <v>2</v>
       </c>
       <c r="L61">
-        <v>2</v>
+        <v>204</v>
       </c>
       <c r="M61">
-        <v>204</v>
+        <v>1</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>304</v>
       </c>
       <c r="O61">
-        <v>304</v>
-      </c>
-      <c r="P61">
         <v>2227</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>25040201</v>
       </c>
-      <c r="B62" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C62" t="s">
-        <v>35</v>
+      <c r="B62" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G62">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="I62">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="K62">
-        <v>420</v>
+        <v>1</v>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="M62">
-        <v>204</v>
+        <v>2</v>
       </c>
       <c r="N62">
-        <v>2</v>
+        <v>304</v>
       </c>
       <c r="O62">
-        <v>304</v>
-      </c>
-      <c r="P62">
         <v>6682</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>25050101</v>
       </c>
-      <c r="B63" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C63" t="s">
-        <v>100</v>
+      <c r="B63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
       </c>
       <c r="D63">
         <v>5</v>
       </c>
       <c r="E63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="G63">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="I63">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="K63">
-        <v>560</v>
+        <v>2</v>
       </c>
       <c r="L63">
-        <v>2</v>
+        <v>205</v>
       </c>
       <c r="M63">
-        <v>205</v>
+        <v>1</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>305</v>
       </c>
       <c r="O63">
-        <v>305</v>
-      </c>
-      <c r="P63">
         <v>4860</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>25050201</v>
       </c>
-      <c r="B64" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C64" t="s">
-        <v>100</v>
+      <c r="B64" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
       </c>
       <c r="D64">
         <v>5</v>
       </c>
       <c r="E64">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="G64">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="I64">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="K64">
-        <v>560</v>
+        <v>1</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="M64">
-        <v>205</v>
+        <v>2</v>
       </c>
       <c r="N64">
-        <v>2</v>
+        <v>305</v>
       </c>
       <c r="O64">
-        <v>305</v>
-      </c>
-      <c r="P64">
         <v>14580</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>25050301</v>
       </c>
-      <c r="B65" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C65" t="s">
-        <v>100</v>
+      <c r="B65" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
       </c>
       <c r="D65">
         <v>5</v>
       </c>
       <c r="E65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F65">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="G65">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="I65">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="K65">
-        <v>560</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>3</v>
       </c>
       <c r="N65">
-        <v>3</v>
+        <v>305</v>
       </c>
       <c r="O65">
-        <v>305</v>
-      </c>
-      <c r="P65">
         <v>43740</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>25060301</v>
       </c>
-      <c r="B66" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C66" t="s">
-        <v>36</v>
+      <c r="B66" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
       </c>
       <c r="D66">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E66">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F66">
-        <v>3</v>
+        <v>210</v>
       </c>
       <c r="G66">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="I66">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="K66">
-        <v>700</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>3</v>
       </c>
       <c r="N66">
-        <v>3</v>
+        <v>306</v>
       </c>
       <c r="O66">
-        <v>306</v>
-      </c>
-      <c r="P66">
         <v>82012</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>20000001</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
-      </c>
-      <c r="C67" t="s">
-        <v>37</v>
+        <v>45</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -4230,14 +3880,11 @@
         <v>0</v>
       </c>
       <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
         <v>450</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O67"/>
+  <autoFilter ref="A1:N67" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4246,7 +3893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4289,7 +3936,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="P1" t="s">
         <v>10</v>
@@ -4346,10 +3993,10 @@
         <v>4200</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O2" t="str">
         <f t="shared" ref="O2:O41" si="0">M2&amp;N2</f>
@@ -4414,10 +4061,10 @@
         <v>6300</v>
       </c>
       <c r="M3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O3" t="str">
         <f t="shared" si="0"/>
@@ -4482,10 +4129,10 @@
         <v>6300</v>
       </c>
       <c r="M4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" si="0"/>
@@ -4550,10 +4197,10 @@
         <v>6300</v>
       </c>
       <c r="M5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="N5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" si="0"/>
@@ -4618,10 +4265,10 @@
         <v>10500</v>
       </c>
       <c r="M6" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O6" t="str">
         <f t="shared" si="0"/>
@@ -4686,10 +4333,10 @@
         <v>10500</v>
       </c>
       <c r="M7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" si="0"/>
@@ -4754,10 +4401,10 @@
         <v>10500</v>
       </c>
       <c r="M8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O8" t="str">
         <f t="shared" si="0"/>
@@ -4822,10 +4469,10 @@
         <v>14700</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O9" t="str">
         <f t="shared" si="0"/>
@@ -4890,10 +4537,10 @@
         <v>14700</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N10" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O10" t="str">
         <f t="shared" si="0"/>
@@ -4958,10 +4605,10 @@
         <v>19600</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="N11" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O11" t="str">
         <f t="shared" si="0"/>
@@ -5026,10 +4673,10 @@
         <v>19600</v>
       </c>
       <c r="M12" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="N12" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O12" t="str">
         <f t="shared" si="0"/>
@@ -5094,10 +4741,10 @@
         <v>19600</v>
       </c>
       <c r="M13" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="N13" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O13" t="str">
         <f t="shared" si="0"/>
@@ -5162,10 +4809,10 @@
         <v>24500</v>
       </c>
       <c r="M14" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N14" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O14" t="str">
         <f t="shared" si="0"/>
@@ -5230,10 +4877,10 @@
         <v>24500</v>
       </c>
       <c r="M15" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N15" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O15" t="str">
         <f t="shared" si="0"/>
@@ -5298,10 +4945,10 @@
         <v>4200</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N16" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="O16" t="str">
         <f t="shared" si="0"/>
@@ -5366,10 +5013,10 @@
         <v>6300</v>
       </c>
       <c r="M17" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="N17" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="O17" t="str">
         <f t="shared" si="0"/>
@@ -5434,10 +5081,10 @@
         <v>6300</v>
       </c>
       <c r="M18" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="N18" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="O18" t="str">
         <f t="shared" si="0"/>
@@ -5502,10 +5149,10 @@
         <v>6300</v>
       </c>
       <c r="M19" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="N19" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="O19" t="str">
         <f t="shared" si="0"/>
@@ -5570,10 +5217,10 @@
         <v>10500</v>
       </c>
       <c r="M20" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N20" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="O20" t="str">
         <f t="shared" si="0"/>
@@ -5638,10 +5285,10 @@
         <v>10500</v>
       </c>
       <c r="M21" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N21" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="O21" t="str">
         <f t="shared" si="0"/>
@@ -5706,10 +5353,10 @@
         <v>10500</v>
       </c>
       <c r="M22" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N22" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="O22" t="str">
         <f t="shared" si="0"/>
@@ -5774,10 +5421,10 @@
         <v>14700</v>
       </c>
       <c r="M23" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N23" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="O23" t="str">
         <f t="shared" si="0"/>
@@ -5842,10 +5489,10 @@
         <v>14700</v>
       </c>
       <c r="M24" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N24" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="O24" t="str">
         <f t="shared" si="0"/>
@@ -5910,10 +5557,10 @@
         <v>19600</v>
       </c>
       <c r="M25" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="N25" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="O25" t="str">
         <f t="shared" si="0"/>
@@ -5978,10 +5625,10 @@
         <v>19600</v>
       </c>
       <c r="M26" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="N26" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="O26" t="str">
         <f t="shared" si="0"/>
@@ -6046,10 +5693,10 @@
         <v>19600</v>
       </c>
       <c r="M27" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="N27" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="O27" t="str">
         <f t="shared" si="0"/>
@@ -6114,10 +5761,10 @@
         <v>24500</v>
       </c>
       <c r="M28" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N28" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="O28" t="str">
         <f t="shared" si="0"/>
@@ -6182,10 +5829,10 @@
         <v>24500</v>
       </c>
       <c r="M29" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N29" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="O29" t="str">
         <f t="shared" si="0"/>
@@ -6250,10 +5897,10 @@
         <v>4200</v>
       </c>
       <c r="M30" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N30" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="O30" t="str">
         <f t="shared" si="0"/>
@@ -6318,10 +5965,10 @@
         <v>6300</v>
       </c>
       <c r="M31" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="N31" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="O31" t="str">
         <f t="shared" si="0"/>
@@ -6386,10 +6033,10 @@
         <v>6300</v>
       </c>
       <c r="M32" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="N32" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="O32" t="str">
         <f t="shared" si="0"/>
@@ -6454,10 +6101,10 @@
         <v>6300</v>
       </c>
       <c r="M33" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="N33" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="O33" t="str">
         <f t="shared" si="0"/>
@@ -6522,10 +6169,10 @@
         <v>10500</v>
       </c>
       <c r="M34" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N34" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="O34" t="str">
         <f t="shared" si="0"/>
@@ -6590,10 +6237,10 @@
         <v>10500</v>
       </c>
       <c r="M35" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N35" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="O35" t="str">
         <f t="shared" si="0"/>
@@ -6658,10 +6305,10 @@
         <v>10500</v>
       </c>
       <c r="M36" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N36" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="O36" t="str">
         <f t="shared" si="0"/>
@@ -6726,10 +6373,10 @@
         <v>14700</v>
       </c>
       <c r="M37" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N37" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="O37" t="str">
         <f t="shared" si="0"/>
@@ -6794,10 +6441,10 @@
         <v>14700</v>
       </c>
       <c r="M38" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N38" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="O38" t="str">
         <f t="shared" si="0"/>
@@ -6862,10 +6509,10 @@
         <v>19600</v>
       </c>
       <c r="M39" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="N39" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="O39" t="str">
         <f t="shared" si="0"/>
@@ -6930,10 +6577,10 @@
         <v>19600</v>
       </c>
       <c r="M40" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="N40" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="O40" t="str">
         <f t="shared" si="0"/>
@@ -6998,10 +6645,10 @@
         <v>19600</v>
       </c>
       <c r="M41" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="N41" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="O41" t="str">
         <f t="shared" si="0"/>
@@ -7066,10 +6713,10 @@
         <v>24500</v>
       </c>
       <c r="M42" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N42" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="O42" t="str">
         <f t="shared" ref="O42:O62" si="8">M42&amp;N42</f>
@@ -7134,10 +6781,10 @@
         <v>24500</v>
       </c>
       <c r="M43" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N43" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="O43" t="str">
         <f t="shared" si="8"/>
@@ -7202,10 +6849,10 @@
         <v>4200</v>
       </c>
       <c r="M44" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N44" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="O44" t="str">
         <f t="shared" si="8"/>
@@ -7270,10 +6917,10 @@
         <v>6300</v>
       </c>
       <c r="M45" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="N45" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="O45" t="str">
         <f t="shared" si="8"/>
@@ -7338,10 +6985,10 @@
         <v>6300</v>
       </c>
       <c r="M46" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="N46" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="O46" t="str">
         <f t="shared" si="8"/>
@@ -7406,10 +7053,10 @@
         <v>6300</v>
       </c>
       <c r="M47" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="N47" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="O47" t="str">
         <f t="shared" si="8"/>
@@ -7474,10 +7121,10 @@
         <v>10500</v>
       </c>
       <c r="M48" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N48" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="O48" t="str">
         <f t="shared" si="8"/>
@@ -7542,10 +7189,10 @@
         <v>10500</v>
       </c>
       <c r="M49" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N49" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="O49" t="str">
         <f t="shared" si="8"/>
@@ -7610,10 +7257,10 @@
         <v>10500</v>
       </c>
       <c r="M50" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N50" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="O50" t="str">
         <f t="shared" si="8"/>
@@ -7678,10 +7325,10 @@
         <v>14700</v>
       </c>
       <c r="M51" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N51" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="O51" t="str">
         <f t="shared" si="8"/>
@@ -7746,10 +7393,10 @@
         <v>14700</v>
       </c>
       <c r="M52" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N52" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="O52" t="str">
         <f t="shared" si="8"/>
@@ -7814,10 +7461,10 @@
         <v>19600</v>
       </c>
       <c r="M53" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="N53" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="O53" t="str">
         <f t="shared" si="8"/>
@@ -7882,10 +7529,10 @@
         <v>19600</v>
       </c>
       <c r="M54" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="N54" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="O54" t="str">
         <f t="shared" si="8"/>
@@ -7950,10 +7597,10 @@
         <v>19600</v>
       </c>
       <c r="M55" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="N55" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="O55" t="str">
         <f t="shared" si="8"/>
@@ -8018,10 +7665,10 @@
         <v>24500</v>
       </c>
       <c r="M56" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N56" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="O56" t="str">
         <f t="shared" si="8"/>
@@ -8086,10 +7733,10 @@
         <v>24500</v>
       </c>
       <c r="M57" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N57" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="O57" t="str">
         <f t="shared" si="8"/>
@@ -8154,10 +7801,10 @@
         <v>4200</v>
       </c>
       <c r="M58" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N58" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="O58" t="str">
         <f t="shared" si="8"/>
@@ -8222,10 +7869,10 @@
         <v>6300</v>
       </c>
       <c r="M59" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="N59" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="O59" t="str">
         <f t="shared" si="8"/>
@@ -8290,10 +7937,10 @@
         <v>6300</v>
       </c>
       <c r="M60" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="N60" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="O60" t="str">
         <f t="shared" si="8"/>
@@ -8358,10 +8005,10 @@
         <v>6300</v>
       </c>
       <c r="M61" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="N61" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="O61" t="str">
         <f t="shared" si="8"/>
@@ -8426,10 +8073,10 @@
         <v>10500</v>
       </c>
       <c r="M62" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N62" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="O62" t="str">
         <f t="shared" si="8"/>
@@ -8494,10 +8141,10 @@
         <v>10500</v>
       </c>
       <c r="M63" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N63" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="O63" t="str">
         <f t="shared" ref="O63:O71" si="11">M63&amp;N63</f>
@@ -8562,10 +8209,10 @@
         <v>10500</v>
       </c>
       <c r="M64" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N64" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="O64" t="str">
         <f t="shared" si="11"/>
@@ -8630,10 +8277,10 @@
         <v>14700</v>
       </c>
       <c r="M65" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N65" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="O65" t="str">
         <f t="shared" si="11"/>
@@ -8698,10 +8345,10 @@
         <v>14700</v>
       </c>
       <c r="M66" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N66" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="O66" t="str">
         <f t="shared" si="11"/>
@@ -8766,10 +8413,10 @@
         <v>19600</v>
       </c>
       <c r="M67" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="N67" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="O67" t="str">
         <f t="shared" si="11"/>
@@ -8834,10 +8481,10 @@
         <v>19600</v>
       </c>
       <c r="M68" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="N68" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="O68" t="str">
         <f t="shared" si="11"/>
@@ -8902,10 +8549,10 @@
         <v>19600</v>
       </c>
       <c r="M69" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="N69" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="O69" t="str">
         <f t="shared" si="11"/>
@@ -8970,10 +8617,10 @@
         <v>24500</v>
       </c>
       <c r="M70" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N70" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="O70" t="str">
         <f t="shared" si="11"/>
@@ -9038,10 +8685,10 @@
         <v>24500</v>
       </c>
       <c r="M71" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N71" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="O71" t="str">
         <f t="shared" si="11"/>
@@ -9098,7 +8745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:Y46"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -9121,10 +8768,10 @@
         <v>201</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F2">
         <v>45</v>
@@ -9138,10 +8785,10 @@
         <v>202</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F3">
         <v>90</v>
@@ -9155,10 +8802,10 @@
         <v>203</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F4">
         <v>180</v>
@@ -9172,10 +8819,10 @@
         <v>204</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F5">
         <v>400</v>
@@ -9189,10 +8836,10 @@
         <v>205</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F6">
         <v>900</v>
@@ -9206,10 +8853,10 @@
         <v>206</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F7">
         <v>2000</v>
@@ -9227,10 +8874,10 @@
         <v>301</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="V8">
         <v>472</v>
@@ -9244,10 +8891,10 @@
         <v>302</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="X9">
         <f>1689/480</f>
@@ -9262,10 +8909,10 @@
         <v>303</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
@@ -9276,10 +8923,10 @@
         <v>304</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="X11">
         <f>480*3.5</f>
@@ -9298,10 +8945,10 @@
         <v>305</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
@@ -9312,10 +8959,10 @@
         <v>306</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
@@ -9330,10 +8977,10 @@
         <v>6</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>9</v>
@@ -9342,7 +8989,7 @@
         <v>3</v>
       </c>
       <c r="L15" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="M15" t="s">
         <v>2</v>
@@ -9377,7 +9024,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="K16" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -9410,7 +9057,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -9451,7 +9098,7 @@
       </c>
       <c r="I18" s="3"/>
       <c r="K18" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="L18">
         <v>3</v>
@@ -9492,7 +9139,7 @@
       </c>
       <c r="I19" s="3"/>
       <c r="K19" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L19">
         <v>4</v>
@@ -9533,7 +9180,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L20">
         <v>5</v>
@@ -9567,7 +9214,7 @@
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.2">
       <c r="K21" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="L21">
         <v>6</v>
@@ -9622,13 +9269,13 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" ref="K23:K45" si="7">K17</f>
@@ -9657,7 +9304,7 @@
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -9698,7 +9345,7 @@
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -9740,7 +9387,7 @@
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -9783,7 +9430,7 @@
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -9820,12 +9467,12 @@
         <v>24500</v>
       </c>
       <c r="V27" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -9864,7 +9511,7 @@
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -9928,16 +9575,16 @@
         <v>3</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G31" s="3"/>
       <c r="I31" s="11"/>
@@ -10568,7 +10215,7 @@
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B46" s="10" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D46" s="6">
         <f t="shared" ref="D46" si="22">E46*F46*10</f>
